--- a/1ReportinginExcel/Lab1Start.xlsx
+++ b/1ReportinginExcel/Lab1Start.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17030"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\Work\GitHub\Introduction-to-Data-Analysis-using-Excel\Module1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenny\DAT205x\1ReportinginExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8595"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -60,8 +60,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -89,8 +97,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,7 +417,7 @@
   <dimension ref="B3:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:C22"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,22 +426,22 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C3">
+      <c r="C3" s="1">
         <v>2011</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>2012</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>2013</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>2014</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>2015</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>2016</v>
       </c>
     </row>
@@ -494,7 +503,7 @@
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -523,7 +532,7 @@
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -577,5 +586,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>